--- a/Codey.xlsx
+++ b/Codey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\flutter\codey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313D6C3E-582F-4B1F-BE83-6C82C3AF5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2677D4-DC4E-41CB-A9ED-7E3463C59E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D31427C9-BA13-42A3-93BF-3D6D844A83C1}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{D31427C9-BA13-42A3-93BF-3D6D844A83C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,29 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Name of shop</t>
-  </si>
-  <si>
-    <t>offercode</t>
-  </si>
-  <si>
-    <t>logo/Icon</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>offer%</t>
-  </si>
-  <si>
     <t>adidas</t>
   </si>
   <si>
@@ -75,6 +57,72 @@
   </si>
   <si>
     <t>PUMA50</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>NIKE35</t>
+  </si>
+  <si>
+    <t>Under Armour</t>
+  </si>
+  <si>
+    <t>New balance</t>
+  </si>
+  <si>
+    <t>LuluLemon athletica</t>
+  </si>
+  <si>
+    <t>Asiscs</t>
+  </si>
+  <si>
+    <t>Columbia Sportswear</t>
+  </si>
+  <si>
+    <t>Fila</t>
+  </si>
+  <si>
+    <t>Reebok</t>
+  </si>
+  <si>
+    <t>UNDERARMOUR45</t>
+  </si>
+  <si>
+    <t>NEWBALANCE15</t>
+  </si>
+  <si>
+    <t>LULULEMONATHLETICA15</t>
+  </si>
+  <si>
+    <t>ASISCSASISCS15</t>
+  </si>
+  <si>
+    <t>COLUMBIASPORTSWEAR15</t>
+  </si>
+  <si>
+    <t>FILAFILA15</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>offerCode</t>
+  </si>
+  <si>
+    <t>REEBOK15</t>
   </si>
 </sst>
 </file>
@@ -426,75 +474,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2520F-AACA-4692-8FC4-9D05A6FE4138}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
